--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>Résultat</t>
   </si>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +124,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -294,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -334,8 +324,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +681,7 @@
       <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="35" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3"/>
@@ -714,7 +702,7 @@
       <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="35" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
@@ -735,7 +723,7 @@
       <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4"/>
@@ -756,7 +744,7 @@
       <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="3"/>
@@ -777,7 +765,7 @@
       <c r="E6" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="35" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Échec : anonymous is prohibited in demo blog!!</t>
+  </si>
+  <si>
+    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +247,21 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -284,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -324,6 +342,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +702,7 @@
       <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="39" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3"/>
@@ -702,7 +723,7 @@
       <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
@@ -723,8 +744,8 @@
       <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>21</v>
+      <c r="F4" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -744,8 +765,8 @@
       <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>21</v>
+      <c r="F5" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -765,7 +786,7 @@
       <c r="E6" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="39" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
   <si>
     <t>Résultat</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture DEMO.</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +250,66 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -302,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -345,6 +408,18 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,8 +777,8 @@
       <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>20</v>
+      <c r="F2" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -723,8 +798,8 @@
       <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>20</v>
+      <c r="F3" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -744,8 +819,8 @@
       <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>22</v>
+      <c r="F4" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -765,7 +840,7 @@
       <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3"/>
@@ -786,8 +861,8 @@
       <c r="E6" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>20</v>
+      <c r="F6" s="53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="26">
   <si>
     <t>Résultat</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Échec : Ouverture DEMO.</t>
+  </si>
+  <si>
+    <t>Élément ignoré suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Ouverture de la page DEMO. /!\</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +256,231 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -363,69 +594,114 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="99">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -444,10 +720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -605,7 +881,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -614,13 +890,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -630,7 +906,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -639,7 +915,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -648,7 +924,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -658,12 +934,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -694,7 +970,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -713,7 +989,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -725,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -777,8 +1053,8 @@
       <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
-        <v>23</v>
+      <c r="F2" s="96" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -798,8 +1074,8 @@
       <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>22</v>
+      <c r="F3" s="96" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -819,8 +1095,8 @@
       <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>23</v>
+      <c r="F4" s="97" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -840,8 +1116,8 @@
       <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>22</v>
+      <c r="F5" s="98" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -861,8 +1137,8 @@
       <c r="E6" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>22</v>
+      <c r="F6" s="96" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1278,7 @@
       <c r="B47" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
+    <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Résultat</t>
   </si>
@@ -77,32 +77,13 @@
   </si>
   <si>
     <t>anonymous</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : anonymous is prohibited in demo blog!!</t>
-  </si>
-  <si>
-    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture DEMO.</t>
-  </si>
-  <si>
-    <t>Élément ignoré suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Ouverture de la page DEMO. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,426 +118,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -573,13 +134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,116 +155,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF006058"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -720,10 +198,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -881,7 +359,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -890,13 +368,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -906,7 +384,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -915,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -924,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -934,12 +412,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -970,7 +448,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -989,7 +467,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1001,36 +479,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1050,12 +528,10 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="96" t="s">
-        <v>20</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,12 +547,10 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="96" t="s">
-        <v>20</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,32 +566,30 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="97" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="98" t="s">
-        <v>24</v>
+      <c r="F5" s="12">
+        <v>3</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1134,12 +606,10 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>9</v>
       </c>
-      <c r="F6" s="96" t="s">
-        <v>20</v>
-      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -1278,7 +748,7 @@
       <c r="B47" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
@@ -189,6 +189,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -236,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,47 +576,51 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -665,6 +672,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -746,6 +754,9 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="14676" windowHeight="5748"/>
   </bookViews>
   <sheets>
     <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,19 +486,19 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -583,7 +583,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -622,140 +622,140 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="14676" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
     <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,19 +486,19 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -583,7 +583,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -599,12 +599,10 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -622,140 +620,140 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -19,18 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
-    <t>Résultat</t>
-  </si>
-  <si>
-    <t>Titre</t>
-  </si>
-  <si>
-    <t>Texte</t>
-  </si>
-  <si>
-    <t>Auteur</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -77,6 +65,18 @@
   </si>
   <si>
     <t>anonymous</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,36 +500,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>7</v>
@@ -539,16 +539,16 @@
     </row>
     <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>10</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7">
         <v>8</v>
@@ -585,16 +585,16 @@
     </row>
     <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11">
         <v>2</v>
@@ -604,16 +604,16 @@
     </row>
     <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7">
         <v>9</v>

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-blog" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Note</t>
   </si>
@@ -77,13 +77,23 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Échec : anonymous is prohibited in demo blog!!</t>
+  </si>
+  <si>
+    <t>Élément ignoré suite à une erreur précédente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +127,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,30 +225,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF006058"/>
@@ -201,10 +283,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +444,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -371,13 +453,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +469,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -396,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,12 +497,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -451,7 +533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -470,7 +552,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -482,8 +564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -491,11 +573,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -534,10 +616,12 @@
       <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -553,10 +637,12 @@
       <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -572,10 +658,12 @@
       <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -583,7 +671,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -599,10 +687,12 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -618,121 +708,123 @@
       <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F7" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="14.45" r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
@@ -757,7 +849,7 @@
       <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Note</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Élément ignoré suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail: anonymous is prohibited in demo blog!!</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -227,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -252,9 +273,12 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -616,8 +640,8 @@
       <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>21</v>
+      <c r="F2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -637,8 +661,8 @@
       <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>22</v>
+      <c r="F3" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -658,8 +682,8 @@
       <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
+      <c r="F4" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -687,8 +711,8 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>20</v>
+      <c r="F6" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -708,8 +732,8 @@
       <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>20</v>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row ht="14.45" r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-blog" r:id="rId1" sheetId="1"/>
+    <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Note</t>
   </si>
@@ -77,29 +77,13 @@
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : anonymous is prohibited in demo blog!!</t>
-  </si>
-  <si>
-    <t>Élément ignoré suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Fail: anonymous is prohibited in demo blog!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,81 +117,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -246,45 +155,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF006058"/>
@@ -307,10 +201,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -468,7 +362,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -477,13 +371,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,7 +387,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -502,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -521,12 +415,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -557,7 +451,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -576,7 +470,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -588,20 +482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row ht="14.45" r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -640,12 +534,10 @@
       <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
-    <row ht="14.45" r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -661,12 +553,10 @@
       <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="3"/>
     </row>
-    <row ht="14.45" r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -682,12 +572,10 @@
       <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
     </row>
-    <row ht="14.45" r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -695,7 +583,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
     </row>
-    <row ht="14.45" r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -711,12 +599,12 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>24</v>
+      <c r="F6" s="12">
+        <v>3</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row ht="14.45" r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -732,123 +620,121 @@
       <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="14.45" r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row ht="14.45" r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row ht="14.45" r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row ht="14.45" r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row ht="14.45" r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row ht="14.45" r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row ht="14.45" r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row ht="14.45" r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row ht="14.45" r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row ht="14.45" r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row ht="14.45" r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row ht="14.45" r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row ht="14.45" r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row ht="14.45" r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row ht="14.45" r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row ht="14.45" r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row ht="14.45" r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row ht="14.45" r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row ht="14.45" r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row ht="14.45" r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row ht="14.45" r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row ht="14.45" r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row ht="14.45" r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row ht="14.45" r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row ht="14.45" r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row ht="14.45" r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row ht="14.45" r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row ht="14.45" r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row ht="14.45" r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row ht="14.45" r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row ht="14.45" r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row ht="14.45" r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row ht="14.45" r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row ht="14.45" r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
@@ -873,7 +759,7 @@
       <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-blog" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-blog" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Note</t>
   </si>
@@ -77,13 +77,20 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail: anonymous is prohibited in demo blog!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +124,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,30 +222,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF006058"/>
@@ -201,10 +280,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +441,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -371,13 +450,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -396,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,12 +494,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -451,7 +530,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -470,7 +549,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -482,8 +561,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -491,11 +570,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,7 +597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -534,10 +613,12 @@
       <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -553,10 +634,12 @@
       <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -572,10 +655,12 @@
       <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -583,7 +668,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -599,12 +684,12 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
-        <v>3</v>
+      <c r="F6" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -620,121 +705,123 @@
       <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F7" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="14.45" r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row ht="14.45" r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
@@ -759,7 +846,7 @@
       <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/blog.xlsx
+++ b/src/test/resources/data/out/blog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>Note</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Fail: anonymous is prohibited in demo blog!!</t>
+  </si>
+  <si>
+    <t>SuccÃ¨s</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ Ouverture de la page the page BAKERY. Cette erreur peut provenir d'un proxy qui ne rÃ©pond pas ou de sa mauvaise configuration /!\</t>
+  </si>
+  <si>
+    <t>ÃlÃ©ment ignorÃ© suite Ã  une erreur prÃ©cÃ©dente.</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +133,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -254,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -288,6 +327,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -598,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -649,8 +694,8 @@
       <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>20</v>
+      <c r="F2" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -670,8 +715,8 @@
       <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>20</v>
+      <c r="F3" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -691,8 +736,8 @@
       <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>20</v>
+      <c r="F4" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -720,8 +765,8 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>21</v>
+      <c r="F6" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -741,8 +786,8 @@
       <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>20</v>
+      <c r="F7" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row ht="14.45" r="8" spans="1:7" x14ac:dyDescent="0.3">
